--- a/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
@@ -348,68 +348,68 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>6500</v>
+        <v>5680</v>
       </c>
       <c r="B1">
-        <v>6595.999999999998</v>
+        <v>5680</v>
       </c>
       <c r="C1">
-        <v>6500</v>
+        <v>5773.999999999985</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>6500</v>
+        <v>5680</v>
       </c>
       <c r="B2">
-        <v>6500</v>
+        <v>5680</v>
       </c>
       <c r="C2">
-        <v>6500</v>
+        <v>5778</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>6500</v>
+        <v>5680</v>
       </c>
       <c r="B3">
-        <v>6619.999999999998</v>
+        <v>5680</v>
       </c>
       <c r="C3">
-        <v>6500</v>
+        <v>5733.999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>6500</v>
+        <v>5680</v>
       </c>
       <c r="B4">
-        <v>6774.270822747939</v>
+        <v>11552.99411623487</v>
       </c>
       <c r="C4">
-        <v>6500.000000000001</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>6500</v>
+        <v>5680</v>
       </c>
       <c r="B5">
-        <v>6500</v>
+        <v>5767.999999999498</v>
       </c>
       <c r="C5">
-        <v>6500</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>6500</v>
+        <v>5680</v>
       </c>
       <c r="B6">
-        <v>6627.999999999998</v>
+        <v>11552.99411623487</v>
       </c>
       <c r="C6">
-        <v>6500</v>
+        <v>5680</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,68 +348,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>5680</v>
+        <v>166</v>
       </c>
       <c r="B1">
-        <v>5680</v>
+        <v>166</v>
       </c>
       <c r="C1">
-        <v>5773.999999999985</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5680</v>
+        <v>166</v>
       </c>
       <c r="B2">
-        <v>5680</v>
+        <v>210.3999999999996</v>
       </c>
       <c r="C2">
-        <v>5778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>5680</v>
-      </c>
-      <c r="B3">
-        <v>5680</v>
-      </c>
-      <c r="C3">
-        <v>5733.999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>5680</v>
-      </c>
-      <c r="B4">
-        <v>11552.99411623487</v>
-      </c>
-      <c r="C4">
-        <v>5680</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>5680</v>
-      </c>
-      <c r="B5">
-        <v>5767.999999999498</v>
-      </c>
-      <c r="C5">
-        <v>5680</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5680</v>
-      </c>
-      <c r="B6">
-        <v>11552.99411623487</v>
-      </c>
-      <c r="C6">
-        <v>5680</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
@@ -348,24 +348,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="B1">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="C1">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="B2">
-        <v>210.3999999999996</v>
+        <v>192.2000000000007</v>
       </c>
       <c r="C2">
-        <v>166</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
@@ -348,24 +348,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B1">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="C1">
-        <v>169</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B2">
-        <v>192.2000000000007</v>
+        <v>179</v>
       </c>
       <c r="C2">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
@@ -348,24 +348,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2">
-        <v>179</v>
+        <v>173.3999999999996</v>
       </c>
       <c r="C2">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
@@ -348,24 +348,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>173.3999999999996</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
@@ -348,24 +348,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>137.2000000000007</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>161.2000000000006</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>218.5000013744256</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>218.5000013744256</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
@@ -348,24 +348,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="B1">
-        <v>137.2000000000007</v>
+        <v>183.3999999999996</v>
       </c>
       <c r="C1">
-        <v>161.2000000000006</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="B2">
-        <v>218.5000013744256</v>
+        <v>137</v>
       </c>
       <c r="C2">
-        <v>218.5000013744256</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
@@ -348,24 +348,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="B1">
-        <v>183.3999999999996</v>
+        <v>165</v>
       </c>
       <c r="C1">
-        <v>137</v>
+        <v>247.3000022737162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>134.6000000000004</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
@@ -348,24 +348,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="B1">
-        <v>165</v>
+        <v>245.6000000000004</v>
       </c>
       <c r="C1">
-        <v>247.3000022737162</v>
+        <v>284.8000000000011</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="B2">
-        <v>134.6000000000004</v>
+        <v>257.4000000000015</v>
       </c>
       <c r="C2">
-        <v>96</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model3/VehicleTripDeliveryStartTime.xlsx
@@ -348,24 +348,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="B1">
-        <v>245.6000000000004</v>
+        <v>261.3999999999996</v>
       </c>
       <c r="C1">
-        <v>284.8000000000011</v>
+        <v>328.3999999999996</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="B2">
-        <v>257.4000000000015</v>
+        <v>292.7999999999994</v>
       </c>
       <c r="C2">
-        <v>179</v>
+        <v>617.5499999565909</v>
       </c>
     </row>
   </sheetData>
